--- a/gyalaga.xlsx
+++ b/gyalaga.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\授業\消さないでください★\進級制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Documents\gyalaga\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,7 +494,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +531,14 @@
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -664,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +743,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,15 +1060,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>80680</xdr:colOff>
+      <xdr:colOff>13063</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>35860</xdr:rowOff>
+      <xdr:rowOff>48923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>188258</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
+      <xdr:rowOff>210286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1066,8 +1077,116 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5728445" y="3065931"/>
-          <a:ext cx="2286001" cy="161363"/>
+          <a:off x="5669280" y="3049026"/>
+          <a:ext cx="718457" cy="161363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90672</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>40214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>918754</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>201579</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="右矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="90672" y="3271094"/>
+          <a:ext cx="828082" cy="161365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85549</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>39956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>918755</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="右矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85549" y="3732390"/>
+          <a:ext cx="833206" cy="179295"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1103,123 +1222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>197224</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="右矢印 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5773271" y="3299012"/>
-          <a:ext cx="1237129" cy="161365"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>98611</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>26893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>224116</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>206188</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="右矢印 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8408893" y="3756211"/>
-          <a:ext cx="2788023" cy="179295"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>26896</xdr:colOff>
+      <xdr:colOff>22541</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>233082</xdr:colOff>
+      <xdr:colOff>228727</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>215153</xdr:rowOff>
+      <xdr:rowOff>219507</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1228,7 +1239,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5674661" y="1398494"/>
+          <a:off x="5678758" y="1389017"/>
           <a:ext cx="206186" cy="215153"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1265,15 +1276,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>53789</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
+      <xdr:colOff>19723</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>179295</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>206189</xdr:rowOff>
+      <xdr:rowOff>222068</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1282,8 +1293,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5701554" y="1622611"/>
-          <a:ext cx="851647" cy="215154"/>
+          <a:off x="5675940" y="1624660"/>
+          <a:ext cx="707443" cy="212848"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1318,16 +1329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>318575</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>5276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1069929</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>206188</xdr:rowOff>
+      <xdr:rowOff>213641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1336,8 +1347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705601" y="1864659"/>
-          <a:ext cx="4446493" cy="206188"/>
+          <a:off x="318575" y="1851493"/>
+          <a:ext cx="751354" cy="208365"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1372,16 +1383,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>107578</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369860</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>44825</xdr:rowOff>
+      <xdr:rowOff>26896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>188258</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>197224</xdr:rowOff>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1390,62 +1401,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6723531" y="2142566"/>
-          <a:ext cx="4437527" cy="152399"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>71716</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>26895</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>170328</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215153</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="右矢印 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7171763" y="3523130"/>
-          <a:ext cx="824753" cy="188258"/>
+          <a:off x="369860" y="2103890"/>
+          <a:ext cx="635980" cy="152399"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1481,25 +1438,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>98611</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80683</xdr:rowOff>
+      <xdr:colOff>28173</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>233082</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>224119</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228216</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="右矢印 19"/>
+        <xdr:cNvPr id="19" name="右矢印 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5746376" y="5208495"/>
-          <a:ext cx="860612" cy="143436"/>
+          <a:off x="5684390" y="3270838"/>
+          <a:ext cx="698992" cy="188258"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1534,26 +1491,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53789</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133445</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>215154</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>197225</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>999436</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="右矢印 20"/>
+        <xdr:cNvPr id="20" name="右矢印 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696636" y="4715436"/>
-          <a:ext cx="860612" cy="143436"/>
+          <a:off x="133445" y="4887814"/>
+          <a:ext cx="865991" cy="143436"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1588,26 +1545,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>215153</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>128580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>79915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>206188</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180638</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>994571</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>223351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="右矢印 21"/>
+        <xdr:cNvPr id="21" name="右矢印 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7673788" y="6974541"/>
-          <a:ext cx="358588" cy="198568"/>
+          <a:off x="128580" y="4695458"/>
+          <a:ext cx="865991" cy="143436"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1642,26 +1599,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>98611</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>564264</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>215152</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>924645</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>224118</xdr:rowOff>
+      <xdr:rowOff>36947</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="右矢印 22"/>
+        <xdr:cNvPr id="22" name="右矢印 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8408893" y="7225553"/>
-          <a:ext cx="358588" cy="224118"/>
+          <a:off x="564264" y="6994776"/>
+          <a:ext cx="360381" cy="196262"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1696,26 +1653,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>80683</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>625479</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>188258</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>985860</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="右矢印 23"/>
+        <xdr:cNvPr id="23" name="右矢印 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8875059" y="4930588"/>
-          <a:ext cx="2232211" cy="152399"/>
+          <a:off x="625479" y="7175863"/>
+          <a:ext cx="360381" cy="224118"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1751,25 +1708,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>53787</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:colOff>24078</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>8964</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
+      <xdr:colOff>222069</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>210030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="右矢印 24"/>
+        <xdr:cNvPr id="24" name="右矢印 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5701552" y="7933764"/>
-          <a:ext cx="439271" cy="188259"/>
+          <a:off x="5680295" y="5134728"/>
+          <a:ext cx="685671" cy="152399"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1804,26 +1761,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>98611</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>406484</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
+      <xdr:rowOff>30736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>206188</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>849341</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>218995</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="右矢印 25"/>
+        <xdr:cNvPr id="25" name="右矢印 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6230470" y="8148917"/>
-          <a:ext cx="322730" cy="215153"/>
+        <a:xfrm>
+          <a:off x="406484" y="7877159"/>
+          <a:ext cx="442857" cy="188259"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1858,26 +1815,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53791</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>534040</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>215151</xdr:rowOff>
+      <xdr:rowOff>36883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>233083</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>858563</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
+      <xdr:rowOff>18954</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="右矢印 26"/>
+        <xdr:cNvPr id="26" name="右矢印 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6669744" y="8373033"/>
-          <a:ext cx="663386" cy="242049"/>
+        <a:xfrm flipV="1">
+          <a:off x="534040" y="8114083"/>
+          <a:ext cx="324523" cy="212848"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1912,26 +1869,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>37204</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>245380</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>206188</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>912352</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15111</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="右矢印 27"/>
+        <xdr:cNvPr id="27" name="右矢印 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7467600" y="8661251"/>
-          <a:ext cx="564776" cy="195878"/>
+          <a:off x="245380" y="8314122"/>
+          <a:ext cx="666972" cy="239743"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1966,26 +1923,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>35858</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>207533</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>334512</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>41558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>206187</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>902874</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4354</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="右矢印 28"/>
+        <xdr:cNvPr id="28" name="右矢印 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7862046" y="5801509"/>
-          <a:ext cx="224118" cy="231737"/>
+          <a:off x="334512" y="8580312"/>
+          <a:ext cx="568362" cy="193573"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2020,16 +1977,70 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>26893</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>697709</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>216242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>25547</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>214896</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="右矢印 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="697709" y="5754893"/>
+          <a:ext cx="225911" cy="229432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>715128</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>205418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>941039</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>204072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2038,8 +2049,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7862047" y="6087034"/>
-          <a:ext cx="224118" cy="231737"/>
+          <a:off x="715128" y="5974847"/>
+          <a:ext cx="225911" cy="229431"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2451,11 +2462,11 @@
   </sheetPr>
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3549,7 +3560,7 @@
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
-      <c r="M23" s="16"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="16"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
